--- a/records/Komal_records_translation.xlsx
+++ b/records/Komal_records_translation.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve"> Most wickets taken caught by a wicketkeeper </t>
   </si>
   <si>
-    <t xml:space="preserve"> వికెట్ కీపర్ గా ఆడి అత్యధిక వికెట్లు క్యాచ్ల ద్వారా సాధించిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> అత్యధిక వికెట్లు వికెట్ కీపర్ క్యాచ్ ల ద్వారా సాధించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most player-of-the-match awards </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve"> Most runs from fours and sixes in an innings </t>
   </si>
   <si>
-    <t xml:space="preserve"> ఒకే ఇన్నింగ్స్ లో ఫోర్లు మరియు సిక్సర్ల ద్వారా అత్యధిక పరుగులు సాధించిన ఆటగాళ్ల </t>
+    <t xml:space="preserve"> ఒకే ఇన్నింగ్స్ లో ఫోర్లు, సిక్సర్ల ద్వారా అత్యధిక పరుగులు సాధించిన ఆటగాళ్ల </t>
   </si>
   <si>
     <t xml:space="preserve"> Most runs in a day </t>
@@ -76,13 +76,13 @@
     <t xml:space="preserve"> Most four-wickets-in-an-innings in a career </t>
   </si>
   <si>
-    <t xml:space="preserve"> కెరీర్ లో ఒక ఇన్నింగ్స్ లో అత్యధిక మ్యాచ్ లలో నాలుగు వికెట్లు సాధించిన ఆటగాళ్ల </t>
+    <t xml:space="preserve"> కెరీర్ లో ఒక ఇన్నింగ్స్ లో నాలుగు వికెట్లు అత్యధిక సార్లు సాధించిన ఆటగాళ్ల </t>
   </si>
   <si>
     <t xml:space="preserve"> Shortest lived players </t>
   </si>
   <si>
-    <t xml:space="preserve"> అతి తక్కువ కాలం నివసించిన ఆటగాళ్ళు </t>
+    <t xml:space="preserve"> అతి తక్కువ కాలం నివసించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most wickets in a series </t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve"> Highest innings total without conceding a bye </t>
   </si>
   <si>
-    <t xml:space="preserve">అదనపు పరుగులు సమర్పించకుండా అత్యధిక ఇన్నింగ్స్ మొత్తం సాధించిన ఆటగాళ్ల </t>
+    <t>అదనపు పరుగులు లేకుండా అత్యధిక ఇన్నింగ్స్ మొత్తం సమర్పించిన వికెట్ కీపర్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 750 wickets </t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve"> Most consecutive four-wickets-in-an-innings </t>
   </si>
   <si>
-    <t xml:space="preserve"> వరుస ఇనింగ్స్ల లో  నాలుగు వికెట్లు సాధించిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> వరుస ఇన్నింగ్స్ లలో నాలుగు వికెట్లు సాధించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Worst career strike rate </t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve"> Most consecutive matches missed for a team between appearances </t>
   </si>
   <si>
-    <t xml:space="preserve"> ప్రదర్శనల మధ్య జట్టు కోసం అత్యధిక వరుస మ్యాచ్ లు ఆడని ఆటగాళ్ల </t>
+    <t xml:space="preserve"> ఒక జట్టుకు ఆడిన రెండు ప్రదర్శనల మధ్య అత్యధిక వరుస మ్యాచ్ లు ఆడకుండా ఉన్న ఆటగాళ్ల </t>
   </si>
   <si>
     <t xml:space="preserve"> Most matches in career </t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve"> Highest partnership for the second wicket </t>
   </si>
   <si>
-    <t xml:space="preserve"> రెండో వికెట్ కు అత్యధిక భాగస్వామ్యం సాధించిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> రెండో వికెట్ కు అత్యధిక భాగస్వామ్యం వహించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Highest career batting average </t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve"> Oldest living players </t>
   </si>
   <si>
-    <t xml:space="preserve"> సజీవ ఆటగాళ్లలో వయసయిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> సజీవంగా ఉన్న పురాతన ( ఓల్డ్ ) ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Highest partnership for the first wicket </t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve"> Oldest captains on captaincy debut </t>
   </si>
   <si>
-    <t xml:space="preserve"> కెప్టెన్సీ అరంగేట్రంలో వయసయిన కెప్టెన్ల</t>
+    <t xml:space="preserve"> కెప్టెన్ గా అరంగేట్రం చేసిన పురాతన ( ఓల్డ్ ) కెప్టెన్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 3000 runs </t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve"> Most runs in a match on the losing side </t>
   </si>
   <si>
-    <t>ఒక మ్యాచ్ లో ఓడిపోయినా జట్టు కి అత్యధిక పరుగులు చేసిన ఆటగాళ్ల</t>
+    <t>ఒక మ్యాచ్ లో ఓడిపోయిన జట్టుకి అత్యధిక పరుగులు చేసిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Dismissed for 99 (and 199, 299 etc) </t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve"> Oldest player to score a hundred </t>
   </si>
   <si>
-    <t xml:space="preserve"> శతకం సాధించిన వయసయిన ఆటగాళ్ల </t>
+    <t xml:space="preserve"> శతకం సాధించిన పురాతన ( ఓల్డ్ ) ఆటగాళ్ల </t>
   </si>
   <si>
     <t xml:space="preserve"> Bowler/fielder combinations </t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve"> Most byes conceded in an innings </t>
   </si>
   <si>
-    <t xml:space="preserve"> ఒక ఇన్నింగ్స్ లో అత్యధిక అదనపు పరుగులు సమర్పించిన ఆటగాళ్ల  </t>
+    <t xml:space="preserve"> ఒక ఇన్నింగ్స్ లో అత్యధిక అదనపు పరుగులు(బైస్) సమర్పించిన ఆటగాళ్ల  </t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 13000 runs </t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve"> Highest partnership for the sixth wicket </t>
   </si>
   <si>
-    <t xml:space="preserve"> ఆరో వికెట్ కు అత్యధిక భాగస్వామ్యం సాధించిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> ఆరో వికెట్ కు అత్యధిక భాగస్వామ్యం చేసిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Youngest player to score a triple hundred </t>
@@ -436,13 +436,13 @@
     <t xml:space="preserve"> Best career bowling average </t>
   </si>
   <si>
-    <t xml:space="preserve"> ఉత్తమ కెరీర్ బౌలింగ్ సగటు సాధించిన ఆటగాళ్ల</t>
+    <t xml:space="preserve"> ఉత్తమ కెరీర్ బౌలింగ్ సగటు ఉన్న ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most catches in a match </t>
   </si>
   <si>
-    <t xml:space="preserve"> ఒక మ్యాచ్ లో అత్యధిక క్యాచ్ లు సాధించిన ఆటగాళ్ల  </t>
+    <t xml:space="preserve"> ఒక మ్యాచ్ లో అత్యధిక క్యాచ్ లు పట్టిన ఆటగాళ్ల  </t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 500 wickets </t>
@@ -906,7 +906,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>145</v>
       </c>
     </row>
